--- a/Pengujian/hr_stratified_result.xlsx
+++ b/Pengujian/hr_stratified_result.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Pengujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Buku\Thesis\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hr_stratified_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>Data: HR</t>
   </si>
@@ -104,12 +105,21 @@
   <si>
     <t>Average Result</t>
   </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +250,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -556,6 +581,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -601,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -609,6 +671,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -933,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,18 +1148,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1316,18 +1392,18 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1560,18 +1636,18 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1804,18 +1880,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -2048,18 +2124,18 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -2570,9 +2646,18 @@
         <f t="shared" si="10"/>
         <v>1.3535147086421995E-2</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2">
+        <f>AVERAGE(H60:H64)</f>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" ref="I65:J65" si="12">AVERAGE(I60:I64)</f>
+        <v>0.97333333333333327</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="12"/>
+        <v>0.39086508574176548</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2602,20 +2687,976 @@
         <f t="shared" si="10"/>
         <v>7.7248251870427962E-4</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xlfn.STDEV.P(H60:H64)</f>
+        <v>6.5319726474218118E-2</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66:J66" si="13">_xlfn.STDEV.P(I60:I64)</f>
+        <v>5.3333333333333365E-2</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="13"/>
+        <v>7.2797115717015051E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A48:J48"/>
+  <mergeCells count="1">
     <mergeCell ref="A58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.96778107348678188</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.7960506287273843</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.76578230323222407</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.38918287275968805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.97289819812553202</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.78709965426440998</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.76200818001296</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.376808157197147</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.96742221805210526</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.79852933616681732</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.76435836314143624</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.3896370929905224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.96689221291078997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.80289057339652103</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.76023609993135699</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.38433108813455902</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.96680048724520395</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.78226128699675301</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.76426522665955499</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.39996679119358097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.96755693718103397</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.80087691077761103</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.75600125322978196</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.38239647356197798</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.96551102551398016</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.7979033847629422</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.77302183242605815</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.3966750873838788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95711345625300703</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.79734855864857501</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.76978945081210204</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.383616329056019</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.96795400975917012</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.78013546536032219</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.76271162952244986</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.37886358438115725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.97199846473864604</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.77600103265256104</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.76955805323592796</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.38382599171905701</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.96709376281144821</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.79097602040284376</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.76602787099634473</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.39086508574176548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.96729185384180183</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <v>0.7928433459479356</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76351860744442579</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.0200641356271122E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.7124208607096729E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6.2746884814000635E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6.5319726474218118E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7.2797115717015051E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>5.610936497378473E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:D9" si="1">_xlfn.STDEV.P(C3:C7)</f>
+        <v>1.0024324376726458E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.3919429336357662E-3</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.97089615257359196</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.798246904922987</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.76245956770156798</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.38919658147227099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.96511245981461602</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.79865156755232203</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.76176743918076895</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.38274285680773101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.96555549629600301</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.81687667483680304</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.77066525102181505</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.39865339389603099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96644638903566604</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.80110500298766896</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.76777606473776805</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.39202446162146898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.972439944010697</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.76467510566581598</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.76600002962977498</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.38346861217978701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <f>AVERAGE(B11:B15)</f>
+        <v>0.96809008834611476</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:E16" si="2">AVERAGE(C11:C15)</f>
+        <v>0.79591105119311945</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76573367045433904</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <f>_xlfn.STDEV.P(B11:B15)</f>
+        <v>2.9929055015713423E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:D17" si="3">_xlfn.STDEV.P(C11:C15)</f>
+        <v>1.7059809175719119E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3170332486720084E-3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.96488888888888802</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.79377777777777703</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.76044444444444403</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.39722827425635698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.96910953853818704</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.80311004114697904</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.76911339150645996</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.39680051843858499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.96466309902216196</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.78019784240361101</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.77400178766314798</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.38827325936004398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.96777874348899295</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.80620918512080397</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.77843829242503804</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.41222538589659402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.96422119505665604</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.78489311936245498</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.75177406308179295</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.38406791017640901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <f>AVERAGE(B19:B23)</f>
+        <v>0.96613229299897729</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>0.79363759316232518</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="4"/>
+        <v>0.76675439582417648</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <f>_xlfn.STDEV.P(B19:B23)</f>
+        <v>1.9458504713599665E-3</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:D25" si="5">_xlfn.STDEV.P(C19:C23)</f>
+        <v>1.0048726978198237E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="5"/>
+        <v>9.5794451234229895E-3</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.96333178709798795</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.81889889826616402</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.77644598299799505</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.39241153115323202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.96622159999692703</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.78288554511380304</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.76379066343811797</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.40212565684526602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.97133226227180203</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.80820732722411204</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.76709807071749603</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.43505845629633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.96822650976054203</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.79686220672694597</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.77176825564570595</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.40820770678896601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.96644292674147603</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.78689903214885504</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.76110690807252201</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.36928339354414902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5">
+        <f>AVERAGE(B27:B31)</f>
+        <v>0.96711101717374715</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:E32" si="6">AVERAGE(C27:C31)</f>
+        <v>0.79875060189597602</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>0.76804197617436731</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5">
+        <f>_xlfn.STDEV.P(B27:B31)</f>
+        <v>2.6299513909836614E-3</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:D33" si="7">_xlfn.STDEV.P(C27:C31)</f>
+        <v>1.3349975798027521E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5058564539995193E-3</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.96689034074791003</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.78222990840558304</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.76755334100415296</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.39026981971943298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.96977527900000604</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.805108953624462</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.76688422165047698</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.38218534472647098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.96489464145501902</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.70514767974162795</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.75355977066553403</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.39545237285352203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.96799002903169296</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.787991970330717</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.77733709850967703</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.38730155355634599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.96466751824837504</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.78820903697192402</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.76511909359223096</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.37367201428638402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="5">
+        <f>AVERAGE(B35:B39)</f>
+        <v>0.96684356169660057</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" ref="C40:E40" si="8">AVERAGE(C35:C39)</f>
+        <v>0.77373750981486278</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="8"/>
+        <v>0.76609070508441446</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5">
+        <f>_xlfn.STDEV.P(B35:B39)</f>
+        <v>1.9206768168421161E-3</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" ref="C41:D41" si="9">_xlfn.STDEV.P(C35:C39)</f>
+        <v>3.5138206706812301E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="9"/>
+        <v>7.5791646472700303E-3</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>